--- a/notes_example.xlsx
+++ b/notes_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Google Drive\School Stuff\454\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\EE454-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79994B81-9BF0-49E2-9BDD-17B83B65A9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ED9B26-4565-4594-993D-BB8F92E72950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BusData" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Bus #</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Btotal, p.u.</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -434,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,6 +492,9 @@
       </c>
       <c r="C3">
         <v>-0.5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -507,7 +513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/notes_example.xlsx
+++ b/notes_example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Documents\GitHub\EE454-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\Google Drive\School Stuff\454\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9ED9B26-4565-4594-993D-BB8F92E72950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495EE098-A69F-4C8A-A218-22583738D8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BusData" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
